--- a/biology/Zoologie/Guildfordia_superba/Guildfordia_superba.xlsx
+++ b/biology/Zoologie/Guildfordia_superba/Guildfordia_superba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guildfordia superba est une espèce d'escargot de mer des Philippines de la famille des Turbinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guildfordia superba est une espèce d'escargot de mer des Philippines de la famille des Turbinidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Guildfordia superba a été décrite en 2005 par Guido Poppe (d), Sheila P. Tagaro (d) et
-Henk Dekker (d)[1],[2]
+Henk Dekker (d),
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de sa coquille atteint 80 mm.
 </t>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente au large des Philippines.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Guido T. Poppe, Sheila Tagaro et Henk Dekker, « Discovery of a new Guildfordia (Gastropoda, Turbinidae) near Balut Island, south of Mindanao, The Philippines », Visaya, vol. 1, no 3,‎ janvier 2005, p. 4-10 (ISSN 1656-4650, lire en ligne)</t>
         </is>
